--- a/biology/Botanique/C.E.Cramer/C.E.Cramer.xlsx
+++ b/biology/Botanique/C.E.Cramer/C.E.Cramer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Eduard Cramer est un botaniste suisse, né le 4 mars 1831 à Zurich et mort le 24 novembre 1901 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Salomon et d’Anna Magdalene née Burkhard. Il étudie à Zurich et à Fribourg-en-Brisgau. Il étudie auprès de Karl Wilhelm von Nägeli et obtient son doctorat en 1855. Il devient maître-assistant en 1857 puis professeur de botanique de 1861 à 1901 à l’École polytechnique fédérale de Zurich. Il enseigne également à l’université de la ville de 1880 à 1883 et dirige le jardin botanique de 1882 à 1893.
 Cramer est l’auteur, avec Nägeli, de Pflanzen physiologische Untersuchungen (1855-1857) ainsi que de nombreux articles. Il étudie la croissance cellulaire des végétaux ainsi que leurs structures. Il s’intéresse également aux champignons de Suisse, à la bactériologie et à la tératologie végétale.
